--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFC4B1-A35E-4910-B044-83F5652008BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC01CFB3-E88A-47CB-A9AA-BF506A29D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB animal" sheetId="4" r:id="rId1"/>
+    <sheet name="회원정보" sheetId="5" r:id="rId2"/>
+    <sheet name="체크리스트" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,6 +195,191 @@
   <si>
     <t>VARCHAR(200)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_members</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 사용자 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_realname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>m_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_check1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_check2</t>
+  </si>
+  <si>
+    <t>u_check3</t>
+  </si>
+  <si>
+    <t>u_check4</t>
+  </si>
+  <si>
+    <t>u_check5</t>
+  </si>
+  <si>
+    <t>u_check6</t>
+  </si>
+  <si>
+    <t>u_check7</t>
+  </si>
+  <si>
+    <t>u_check8</t>
+  </si>
+  <si>
+    <t>u_check9</t>
+  </si>
+  <si>
+    <t>u_check10</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_usernum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입순서대로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_username</t>
   </si>
 </sst>
 </file>
@@ -667,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +945,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -773,13 +975,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,19 +987,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19970286-558C-419C-ADE7-4E446360853C}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1806,18 +1999,20 @@
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="46">
+        <v>45327</v>
+      </c>
+      <c r="K2" s="40"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1829,34 +2024,34 @@
       <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1897,20 +2092,20 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="3"/>
@@ -1922,7 +2117,7 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1947,7 +2142,7 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="30" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1972,7 +2167,7 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1997,7 +2192,7 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -2340,4 +2535,2450 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AFB83-7989-4054-9457-9B3842159164}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="46">
+        <v>45327</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C432711-B963-4B49-8A43-C929541A20EB}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="46">
+        <v>45327</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC01CFB3-E88A-47CB-A9AA-BF506A29D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB409A2-DA2D-41EE-B910-A4319987F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB animal" sheetId="4" r:id="rId1"/>
+    <sheet name="동물정보" sheetId="4" r:id="rId1"/>
     <sheet name="회원정보" sheetId="5" r:id="rId2"/>
     <sheet name="체크리스트" sheetId="6" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상품 기본정보를 저장하는 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -380,6 +376,14 @@
   </si>
   <si>
     <t>m_username</t>
+  </si>
+  <si>
+    <t>동물들 내용을 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 사용자별 체크리스트를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -957,6 +961,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -975,6 +985,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,15 +998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,7 +1345,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1997,22 +2001,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="46">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42">
         <v>45327</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2022,36 +2026,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="C4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2093,20 +2097,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2118,19 +2122,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2143,19 +2147,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2168,19 +2172,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2193,19 +2197,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2542,7 +2546,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3198,22 +3202,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="46">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42">
         <v>45327</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3223,36 +3227,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3293,21 +3297,21 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3318,20 +3322,20 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3344,16 +3348,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3367,16 +3371,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3390,16 +3394,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3718,12 +3722,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3737,7 +3741,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4393,22 +4397,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="46">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42">
         <v>45327</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4418,38 +4422,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="46"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4490,50 +4494,50 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>63</v>
+      <c r="C6" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="L6" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>64</v>
+      <c r="C7" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4547,16 +4551,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4570,16 +4574,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4593,16 +4597,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4616,16 +4620,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4639,16 +4643,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4662,16 +4666,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -4685,16 +4689,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -4708,16 +4712,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -4731,16 +4735,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="E16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -4969,12 +4973,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB409A2-DA2D-41EE-B910-A4319987F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C46A2-A0A9-4F61-9D73-0C71543BCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1410" windowWidth="14415" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_동물n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사육조건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,10 +161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열형(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>a_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,10 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,6 +371,18 @@
   </si>
   <si>
     <t>애플리케이션 사용자별 체크리스트를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(300)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19970286-558C-419C-ADE7-4E446360853C}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2026,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
@@ -2045,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -2103,7 +2103,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>23</v>
@@ -2122,16 +2122,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>24</v>
@@ -2147,16 +2147,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>24</v>
@@ -2172,16 +2172,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>24</v>
@@ -2197,16 +2197,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>24</v>
@@ -2546,7 +2546,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3202,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>14</v>
@@ -3227,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
@@ -3246,7 +3246,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -3298,16 +3298,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -3323,16 +3323,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>24</v>
@@ -3354,7 +3354,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>23</v>
@@ -3371,16 +3371,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3394,16 +3394,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3740,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C432711-B963-4B49-8A43-C929541A20EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4397,7 +4397,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>14</v>
@@ -4422,7 +4422,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="17"/>
@@ -4443,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -4495,32 +4495,32 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,16 +4528,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4551,16 +4551,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4574,16 +4574,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4597,16 +4597,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4620,16 +4620,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4643,16 +4643,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4666,16 +4666,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -4689,16 +4689,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="E14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -4712,16 +4712,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -4735,16 +4735,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C46A2-A0A9-4F61-9D73-0C71543BCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80801A0-B8A5-4663-BD8F-4289DC27CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1410" windowWidth="14415" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="7215" windowWidth="21660" windowHeight="14790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -268,101 +268,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체크리스트1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열형(100)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>u_check1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_check2</t>
-  </si>
-  <si>
-    <t>u_check3</t>
-  </si>
-  <si>
-    <t>u_check4</t>
-  </si>
-  <si>
-    <t>u_check5</t>
-  </si>
-  <si>
-    <t>u_check6</t>
-  </si>
-  <si>
-    <t>u_check7</t>
-  </si>
-  <si>
-    <t>u_check8</t>
-  </si>
-  <si>
-    <t>u_check9</t>
-  </si>
-  <si>
-    <t>u_check10</t>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>u_usernum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입순서대로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m_username</t>
   </si>
   <si>
@@ -384,6 +297,17 @@
   <si>
     <t>VARCHAR(300)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_CUSER</t>
   </si>
 </sst>
 </file>
@@ -858,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +889,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1344,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19970286-558C-419C-ADE7-4E446360853C}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2003,20 +1930,20 @@
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="41" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42">
+      <c r="I2" s="42"/>
+      <c r="J2" s="43">
         <v>45327</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2026,36 +1953,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
+      <c r="C4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2125,13 +2052,13 @@
         <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>24</v>
@@ -2150,13 +2077,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>24</v>
@@ -2175,13 +2102,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>24</v>
@@ -2200,13 +2127,13 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>24</v>
@@ -2546,7 +2473,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3204,20 +3131,20 @@
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="41" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42">
+      <c r="I2" s="42"/>
+      <c r="J2" s="43">
         <v>45327</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3229,34 +3156,34 @@
       <c r="C3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="44" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3740,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C432711-B963-4B49-8A43-C929541A20EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3754,7 +3681,7 @@
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" customWidth="1"/>
@@ -4399,20 +4326,20 @@
       <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="41" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42">
+      <c r="I2" s="42"/>
+      <c r="J2" s="43">
         <v>45327</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4424,36 +4351,36 @@
       <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="44" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="46"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
+      <c r="C4" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4501,45 +4428,45 @@
         <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -4550,18 +4477,10 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4573,18 +4492,10 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4596,18 +4507,10 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -4619,18 +4522,10 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -4642,18 +4537,10 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -4665,18 +4552,10 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4688,18 +4567,10 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -4711,18 +4582,10 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -4734,18 +4597,10 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -4757,7 +4612,7 @@
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -4772,7 +4627,7 @@
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -4787,7 +4642,7 @@
       <c r="B19" s="9">
         <v>14</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -4802,7 +4657,7 @@
       <c r="B20" s="9">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -4817,7 +4672,7 @@
       <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80801A0-B8A5-4663-BD8F-4289DC27CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E88CFD-DD3B-4E6A-9058-24DB788D962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="7215" windowWidth="21660" windowHeight="14790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="420" windowWidth="21660" windowHeight="14790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
     <sheet name="회원정보" sheetId="5" r:id="rId2"/>
     <sheet name="체크리스트" sheetId="6" r:id="rId3"/>
+    <sheet name="공지사항" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -308,13 +309,124 @@
   </si>
   <si>
     <t>FK_CUSER</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>작성일자</t>
+  </si>
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>변경이력</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>n_caution</t>
+  </si>
+  <si>
+    <t>문자열형(200)</t>
+  </si>
+  <si>
+    <t>주의사항</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>n_viewer</t>
+  </si>
+  <si>
+    <t>문자열형(20)</t>
+  </si>
+  <si>
+    <t>시청자</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>n_director</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>FK 열이름</t>
+  </si>
+  <si>
+    <t>FK 테이블 이름</t>
+  </si>
+  <si>
+    <t>외래키</t>
+  </si>
+  <si>
+    <t>기본키</t>
+  </si>
+  <si>
+    <t>NULL ?</t>
+  </si>
+  <si>
+    <t>MySQUL</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+  </si>
+  <si>
+    <t>열 이름</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>공지사항 기본정보를 저장하는 테이블</t>
+  </si>
+  <si>
+    <t>테이블 설명</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>tbl_notice</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>작성일</t>
+  </si>
+  <si>
+    <t>테이블 명세서</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>테이블명</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -354,8 +466,38 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +513,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,12 +931,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,9 +1084,136 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{6A27BE72-6346-4C66-993E-A326C4264936}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3667,7 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C432711-B963-4B49-8A43-C929541A20EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4840,4 +5124,1178 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A351F1-878B-462B-9084-35D481A916B5}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="48" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="48" customWidth="1"/>
+    <col min="13" max="258" width="8.77734375" style="48"/>
+    <col min="259" max="259" width="1.33203125" style="48" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.77734375" style="48"/>
+    <col min="515" max="515" width="1.33203125" style="48" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.77734375" style="48"/>
+    <col min="771" max="771" width="1.33203125" style="48" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.77734375" style="48"/>
+    <col min="1027" max="1027" width="1.33203125" style="48" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.77734375" style="48"/>
+    <col min="1283" max="1283" width="1.33203125" style="48" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.77734375" style="48"/>
+    <col min="1539" max="1539" width="1.33203125" style="48" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.77734375" style="48"/>
+    <col min="1795" max="1795" width="1.33203125" style="48" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.77734375" style="48"/>
+    <col min="2051" max="2051" width="1.33203125" style="48" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.77734375" style="48"/>
+    <col min="2307" max="2307" width="1.33203125" style="48" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.77734375" style="48"/>
+    <col min="2563" max="2563" width="1.33203125" style="48" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.77734375" style="48"/>
+    <col min="2819" max="2819" width="1.33203125" style="48" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.77734375" style="48"/>
+    <col min="3075" max="3075" width="1.33203125" style="48" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.77734375" style="48"/>
+    <col min="3331" max="3331" width="1.33203125" style="48" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.77734375" style="48"/>
+    <col min="3587" max="3587" width="1.33203125" style="48" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.77734375" style="48"/>
+    <col min="3843" max="3843" width="1.33203125" style="48" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.77734375" style="48"/>
+    <col min="4099" max="4099" width="1.33203125" style="48" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.77734375" style="48"/>
+    <col min="4355" max="4355" width="1.33203125" style="48" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.77734375" style="48"/>
+    <col min="4611" max="4611" width="1.33203125" style="48" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.77734375" style="48"/>
+    <col min="4867" max="4867" width="1.33203125" style="48" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.77734375" style="48"/>
+    <col min="5123" max="5123" width="1.33203125" style="48" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.77734375" style="48"/>
+    <col min="5379" max="5379" width="1.33203125" style="48" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.77734375" style="48"/>
+    <col min="5635" max="5635" width="1.33203125" style="48" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.77734375" style="48"/>
+    <col min="5891" max="5891" width="1.33203125" style="48" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.77734375" style="48"/>
+    <col min="6147" max="6147" width="1.33203125" style="48" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.77734375" style="48"/>
+    <col min="6403" max="6403" width="1.33203125" style="48" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.77734375" style="48"/>
+    <col min="6659" max="6659" width="1.33203125" style="48" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.77734375" style="48"/>
+    <col min="6915" max="6915" width="1.33203125" style="48" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.77734375" style="48"/>
+    <col min="7171" max="7171" width="1.33203125" style="48" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.77734375" style="48"/>
+    <col min="7427" max="7427" width="1.33203125" style="48" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.77734375" style="48"/>
+    <col min="7683" max="7683" width="1.33203125" style="48" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.77734375" style="48"/>
+    <col min="7939" max="7939" width="1.33203125" style="48" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.77734375" style="48"/>
+    <col min="8195" max="8195" width="1.33203125" style="48" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.77734375" style="48"/>
+    <col min="8451" max="8451" width="1.33203125" style="48" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.77734375" style="48"/>
+    <col min="8707" max="8707" width="1.33203125" style="48" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.77734375" style="48"/>
+    <col min="8963" max="8963" width="1.33203125" style="48" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.77734375" style="48"/>
+    <col min="9219" max="9219" width="1.33203125" style="48" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.77734375" style="48"/>
+    <col min="9475" max="9475" width="1.33203125" style="48" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.77734375" style="48"/>
+    <col min="9731" max="9731" width="1.33203125" style="48" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.77734375" style="48"/>
+    <col min="9987" max="9987" width="1.33203125" style="48" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.77734375" style="48"/>
+    <col min="10243" max="10243" width="1.33203125" style="48" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.77734375" style="48"/>
+    <col min="10499" max="10499" width="1.33203125" style="48" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.77734375" style="48"/>
+    <col min="10755" max="10755" width="1.33203125" style="48" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.77734375" style="48"/>
+    <col min="11011" max="11011" width="1.33203125" style="48" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.77734375" style="48"/>
+    <col min="11267" max="11267" width="1.33203125" style="48" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.77734375" style="48"/>
+    <col min="11523" max="11523" width="1.33203125" style="48" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.77734375" style="48"/>
+    <col min="11779" max="11779" width="1.33203125" style="48" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.77734375" style="48"/>
+    <col min="12035" max="12035" width="1.33203125" style="48" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.77734375" style="48"/>
+    <col min="12291" max="12291" width="1.33203125" style="48" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.77734375" style="48"/>
+    <col min="12547" max="12547" width="1.33203125" style="48" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.77734375" style="48"/>
+    <col min="12803" max="12803" width="1.33203125" style="48" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.77734375" style="48"/>
+    <col min="13059" max="13059" width="1.33203125" style="48" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.77734375" style="48"/>
+    <col min="13315" max="13315" width="1.33203125" style="48" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.77734375" style="48"/>
+    <col min="13571" max="13571" width="1.33203125" style="48" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.77734375" style="48"/>
+    <col min="13827" max="13827" width="1.33203125" style="48" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.77734375" style="48"/>
+    <col min="14083" max="14083" width="1.33203125" style="48" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.77734375" style="48"/>
+    <col min="14339" max="14339" width="1.33203125" style="48" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.77734375" style="48"/>
+    <col min="14595" max="14595" width="1.33203125" style="48" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.77734375" style="48"/>
+    <col min="14851" max="14851" width="1.33203125" style="48" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.77734375" style="48"/>
+    <col min="15107" max="15107" width="1.33203125" style="48" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.77734375" style="48"/>
+    <col min="15363" max="15363" width="1.33203125" style="48" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.77734375" style="48"/>
+    <col min="15619" max="15619" width="1.33203125" style="48" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.77734375" style="48"/>
+    <col min="15875" max="15875" width="1.33203125" style="48" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.77734375" style="48"/>
+    <col min="16131" max="16131" width="1.33203125" style="48" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.77734375" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="87"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="81"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="78"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="74"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="70">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="63">
+        <v>2</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="61"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="63">
+        <v>3</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="61"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="63">
+        <v>4</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="63">
+        <v>5</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="61"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="63">
+        <v>6</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="61"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="63">
+        <v>7</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="63">
+        <v>8</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="61"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="63">
+        <v>9</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="61"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="63">
+        <v>10</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="61"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="63">
+        <v>11</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="61"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="63">
+        <v>12</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="61"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="63">
+        <v>13</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="61"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="63">
+        <v>14</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="61"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="63">
+        <v>15</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="61"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="60">
+        <v>16</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="58"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="55"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="52"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="54"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="54"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="54"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="54"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="54"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="52"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="54"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="52"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="51"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E88CFD-DD3B-4E6A-9058-24DB788D962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237E1F2B-7C21-489A-A3DB-DEA56AC721DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="420" windowWidth="21660" windowHeight="14790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="195" windowWidth="21660" windowHeight="14790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
     <sheet name="회원정보" sheetId="5" r:id="rId2"/>
     <sheet name="체크리스트" sheetId="6" r:id="rId3"/>
     <sheet name="공지사항" sheetId="7" r:id="rId4"/>
+    <sheet name="자유게시판" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,13 +421,89 @@
   </si>
   <si>
     <t>테이블명</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채민선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_bbd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -496,6 +573,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -529,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -930,6 +1014,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -939,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,6 +1148,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1084,130 +1274,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2214,20 +2317,20 @@
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43">
+      <c r="I2" s="73"/>
+      <c r="J2" s="74">
         <v>45327</v>
       </c>
-      <c r="K2" s="44"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2239,34 +2342,34 @@
       <c r="C3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="45" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3415,20 +3518,20 @@
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43">
+      <c r="I2" s="73"/>
+      <c r="J2" s="74">
         <v>45327</v>
       </c>
-      <c r="K2" s="44"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3440,34 +3543,34 @@
       <c r="C3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="45" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4610,20 +4713,20 @@
       <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43">
+      <c r="I2" s="73"/>
+      <c r="J2" s="74">
         <v>45327</v>
       </c>
-      <c r="K2" s="44"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4635,36 +4738,36 @@
       <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="45" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="78"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5130,1160 +5233,1160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A351F1-878B-462B-9084-35D481A916B5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="48" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="48" customWidth="1"/>
-    <col min="13" max="258" width="8.77734375" style="48"/>
-    <col min="259" max="259" width="1.33203125" style="48" customWidth="1"/>
-    <col min="260" max="260" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="269" max="514" width="8.77734375" style="48"/>
-    <col min="515" max="515" width="1.33203125" style="48" customWidth="1"/>
-    <col min="516" max="516" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="525" max="770" width="8.77734375" style="48"/>
-    <col min="771" max="771" width="1.33203125" style="48" customWidth="1"/>
-    <col min="772" max="772" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="781" max="1026" width="8.77734375" style="48"/>
-    <col min="1027" max="1027" width="1.33203125" style="48" customWidth="1"/>
-    <col min="1028" max="1028" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1033" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1282" width="8.77734375" style="48"/>
-    <col min="1283" max="1283" width="1.33203125" style="48" customWidth="1"/>
-    <col min="1284" max="1284" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1289" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1538" width="8.77734375" style="48"/>
-    <col min="1539" max="1539" width="1.33203125" style="48" customWidth="1"/>
-    <col min="1540" max="1540" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1545" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1794" width="8.77734375" style="48"/>
-    <col min="1795" max="1795" width="1.33203125" style="48" customWidth="1"/>
-    <col min="1796" max="1796" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1801" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2050" width="8.77734375" style="48"/>
-    <col min="2051" max="2051" width="1.33203125" style="48" customWidth="1"/>
-    <col min="2052" max="2052" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2057" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2306" width="8.77734375" style="48"/>
-    <col min="2307" max="2307" width="1.33203125" style="48" customWidth="1"/>
-    <col min="2308" max="2308" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2313" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2562" width="8.77734375" style="48"/>
-    <col min="2563" max="2563" width="1.33203125" style="48" customWidth="1"/>
-    <col min="2564" max="2564" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2569" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2818" width="8.77734375" style="48"/>
-    <col min="2819" max="2819" width="1.33203125" style="48" customWidth="1"/>
-    <col min="2820" max="2820" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2825" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3074" width="8.77734375" style="48"/>
-    <col min="3075" max="3075" width="1.33203125" style="48" customWidth="1"/>
-    <col min="3076" max="3076" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3081" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3330" width="8.77734375" style="48"/>
-    <col min="3331" max="3331" width="1.33203125" style="48" customWidth="1"/>
-    <col min="3332" max="3332" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3337" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3586" width="8.77734375" style="48"/>
-    <col min="3587" max="3587" width="1.33203125" style="48" customWidth="1"/>
-    <col min="3588" max="3588" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3593" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3842" width="8.77734375" style="48"/>
-    <col min="3843" max="3843" width="1.33203125" style="48" customWidth="1"/>
-    <col min="3844" max="3844" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3849" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4098" width="8.77734375" style="48"/>
-    <col min="4099" max="4099" width="1.33203125" style="48" customWidth="1"/>
-    <col min="4100" max="4100" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4105" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4354" width="8.77734375" style="48"/>
-    <col min="4355" max="4355" width="1.33203125" style="48" customWidth="1"/>
-    <col min="4356" max="4356" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4361" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4610" width="8.77734375" style="48"/>
-    <col min="4611" max="4611" width="1.33203125" style="48" customWidth="1"/>
-    <col min="4612" max="4612" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4617" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4866" width="8.77734375" style="48"/>
-    <col min="4867" max="4867" width="1.33203125" style="48" customWidth="1"/>
-    <col min="4868" max="4868" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4873" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5122" width="8.77734375" style="48"/>
-    <col min="5123" max="5123" width="1.33203125" style="48" customWidth="1"/>
-    <col min="5124" max="5124" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5129" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5378" width="8.77734375" style="48"/>
-    <col min="5379" max="5379" width="1.33203125" style="48" customWidth="1"/>
-    <col min="5380" max="5380" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5385" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5634" width="8.77734375" style="48"/>
-    <col min="5635" max="5635" width="1.33203125" style="48" customWidth="1"/>
-    <col min="5636" max="5636" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5641" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5890" width="8.77734375" style="48"/>
-    <col min="5891" max="5891" width="1.33203125" style="48" customWidth="1"/>
-    <col min="5892" max="5892" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5897" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6146" width="8.77734375" style="48"/>
-    <col min="6147" max="6147" width="1.33203125" style="48" customWidth="1"/>
-    <col min="6148" max="6148" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6153" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6402" width="8.77734375" style="48"/>
-    <col min="6403" max="6403" width="1.33203125" style="48" customWidth="1"/>
-    <col min="6404" max="6404" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6409" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6658" width="8.77734375" style="48"/>
-    <col min="6659" max="6659" width="1.33203125" style="48" customWidth="1"/>
-    <col min="6660" max="6660" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6665" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6914" width="8.77734375" style="48"/>
-    <col min="6915" max="6915" width="1.33203125" style="48" customWidth="1"/>
-    <col min="6916" max="6916" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6921" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7170" width="8.77734375" style="48"/>
-    <col min="7171" max="7171" width="1.33203125" style="48" customWidth="1"/>
-    <col min="7172" max="7172" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7177" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7426" width="8.77734375" style="48"/>
-    <col min="7427" max="7427" width="1.33203125" style="48" customWidth="1"/>
-    <col min="7428" max="7428" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7433" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7682" width="8.77734375" style="48"/>
-    <col min="7683" max="7683" width="1.33203125" style="48" customWidth="1"/>
-    <col min="7684" max="7684" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7689" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7938" width="8.77734375" style="48"/>
-    <col min="7939" max="7939" width="1.33203125" style="48" customWidth="1"/>
-    <col min="7940" max="7940" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7945" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8194" width="8.77734375" style="48"/>
-    <col min="8195" max="8195" width="1.33203125" style="48" customWidth="1"/>
-    <col min="8196" max="8196" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8201" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8450" width="8.77734375" style="48"/>
-    <col min="8451" max="8451" width="1.33203125" style="48" customWidth="1"/>
-    <col min="8452" max="8452" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8457" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8706" width="8.77734375" style="48"/>
-    <col min="8707" max="8707" width="1.33203125" style="48" customWidth="1"/>
-    <col min="8708" max="8708" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8713" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8962" width="8.77734375" style="48"/>
-    <col min="8963" max="8963" width="1.33203125" style="48" customWidth="1"/>
-    <col min="8964" max="8964" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8969" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9218" width="8.77734375" style="48"/>
-    <col min="9219" max="9219" width="1.33203125" style="48" customWidth="1"/>
-    <col min="9220" max="9220" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9225" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9474" width="8.77734375" style="48"/>
-    <col min="9475" max="9475" width="1.33203125" style="48" customWidth="1"/>
-    <col min="9476" max="9476" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9481" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9730" width="8.77734375" style="48"/>
-    <col min="9731" max="9731" width="1.33203125" style="48" customWidth="1"/>
-    <col min="9732" max="9732" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9737" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9986" width="8.77734375" style="48"/>
-    <col min="9987" max="9987" width="1.33203125" style="48" customWidth="1"/>
-    <col min="9988" max="9988" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9993" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10242" width="8.77734375" style="48"/>
-    <col min="10243" max="10243" width="1.33203125" style="48" customWidth="1"/>
-    <col min="10244" max="10244" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10249" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10498" width="8.77734375" style="48"/>
-    <col min="10499" max="10499" width="1.33203125" style="48" customWidth="1"/>
-    <col min="10500" max="10500" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10505" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10754" width="8.77734375" style="48"/>
-    <col min="10755" max="10755" width="1.33203125" style="48" customWidth="1"/>
-    <col min="10756" max="10756" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10761" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11010" width="8.77734375" style="48"/>
-    <col min="11011" max="11011" width="1.33203125" style="48" customWidth="1"/>
-    <col min="11012" max="11012" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11017" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11266" width="8.77734375" style="48"/>
-    <col min="11267" max="11267" width="1.33203125" style="48" customWidth="1"/>
-    <col min="11268" max="11268" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11273" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11522" width="8.77734375" style="48"/>
-    <col min="11523" max="11523" width="1.33203125" style="48" customWidth="1"/>
-    <col min="11524" max="11524" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11529" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11778" width="8.77734375" style="48"/>
-    <col min="11779" max="11779" width="1.33203125" style="48" customWidth="1"/>
-    <col min="11780" max="11780" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11785" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12034" width="8.77734375" style="48"/>
-    <col min="12035" max="12035" width="1.33203125" style="48" customWidth="1"/>
-    <col min="12036" max="12036" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12041" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12290" width="8.77734375" style="48"/>
-    <col min="12291" max="12291" width="1.33203125" style="48" customWidth="1"/>
-    <col min="12292" max="12292" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12297" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12546" width="8.77734375" style="48"/>
-    <col min="12547" max="12547" width="1.33203125" style="48" customWidth="1"/>
-    <col min="12548" max="12548" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12553" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12802" width="8.77734375" style="48"/>
-    <col min="12803" max="12803" width="1.33203125" style="48" customWidth="1"/>
-    <col min="12804" max="12804" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12809" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13058" width="8.77734375" style="48"/>
-    <col min="13059" max="13059" width="1.33203125" style="48" customWidth="1"/>
-    <col min="13060" max="13060" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13065" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13314" width="8.77734375" style="48"/>
-    <col min="13315" max="13315" width="1.33203125" style="48" customWidth="1"/>
-    <col min="13316" max="13316" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13321" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13570" width="8.77734375" style="48"/>
-    <col min="13571" max="13571" width="1.33203125" style="48" customWidth="1"/>
-    <col min="13572" max="13572" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13577" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13826" width="8.77734375" style="48"/>
-    <col min="13827" max="13827" width="1.33203125" style="48" customWidth="1"/>
-    <col min="13828" max="13828" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13833" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14082" width="8.77734375" style="48"/>
-    <col min="14083" max="14083" width="1.33203125" style="48" customWidth="1"/>
-    <col min="14084" max="14084" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14089" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14338" width="8.77734375" style="48"/>
-    <col min="14339" max="14339" width="1.33203125" style="48" customWidth="1"/>
-    <col min="14340" max="14340" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14345" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14594" width="8.77734375" style="48"/>
-    <col min="14595" max="14595" width="1.33203125" style="48" customWidth="1"/>
-    <col min="14596" max="14596" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14601" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14850" width="8.77734375" style="48"/>
-    <col min="14851" max="14851" width="1.33203125" style="48" customWidth="1"/>
-    <col min="14852" max="14852" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14857" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15106" width="8.77734375" style="48"/>
-    <col min="15107" max="15107" width="1.33203125" style="48" customWidth="1"/>
-    <col min="15108" max="15108" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15113" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15362" width="8.77734375" style="48"/>
-    <col min="15363" max="15363" width="1.33203125" style="48" customWidth="1"/>
-    <col min="15364" max="15364" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15369" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15618" width="8.77734375" style="48"/>
-    <col min="15619" max="15619" width="1.33203125" style="48" customWidth="1"/>
-    <col min="15620" max="15620" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15625" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15874" width="8.77734375" style="48"/>
-    <col min="15875" max="15875" width="1.33203125" style="48" customWidth="1"/>
-    <col min="15876" max="15876" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15881" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16130" width="8.77734375" style="48"/>
-    <col min="16131" max="16131" width="1.33203125" style="48" customWidth="1"/>
-    <col min="16132" max="16132" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="8.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.77734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16137" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="12.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="4.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16384" width="8.77734375" style="48"/>
+    <col min="1" max="1" width="5.44140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="37" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="37" customWidth="1"/>
+    <col min="13" max="258" width="8.77734375" style="37"/>
+    <col min="259" max="259" width="1.33203125" style="37" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.77734375" style="37"/>
+    <col min="515" max="515" width="1.33203125" style="37" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.77734375" style="37"/>
+    <col min="771" max="771" width="1.33203125" style="37" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.77734375" style="37"/>
+    <col min="1027" max="1027" width="1.33203125" style="37" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.77734375" style="37"/>
+    <col min="1283" max="1283" width="1.33203125" style="37" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.77734375" style="37"/>
+    <col min="1539" max="1539" width="1.33203125" style="37" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.77734375" style="37"/>
+    <col min="1795" max="1795" width="1.33203125" style="37" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.77734375" style="37"/>
+    <col min="2051" max="2051" width="1.33203125" style="37" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.77734375" style="37"/>
+    <col min="2307" max="2307" width="1.33203125" style="37" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.77734375" style="37"/>
+    <col min="2563" max="2563" width="1.33203125" style="37" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.77734375" style="37"/>
+    <col min="2819" max="2819" width="1.33203125" style="37" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.77734375" style="37"/>
+    <col min="3075" max="3075" width="1.33203125" style="37" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.77734375" style="37"/>
+    <col min="3331" max="3331" width="1.33203125" style="37" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.77734375" style="37"/>
+    <col min="3587" max="3587" width="1.33203125" style="37" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.77734375" style="37"/>
+    <col min="3843" max="3843" width="1.33203125" style="37" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.77734375" style="37"/>
+    <col min="4099" max="4099" width="1.33203125" style="37" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.77734375" style="37"/>
+    <col min="4355" max="4355" width="1.33203125" style="37" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.77734375" style="37"/>
+    <col min="4611" max="4611" width="1.33203125" style="37" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.77734375" style="37"/>
+    <col min="4867" max="4867" width="1.33203125" style="37" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.77734375" style="37"/>
+    <col min="5123" max="5123" width="1.33203125" style="37" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.77734375" style="37"/>
+    <col min="5379" max="5379" width="1.33203125" style="37" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.77734375" style="37"/>
+    <col min="5635" max="5635" width="1.33203125" style="37" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.77734375" style="37"/>
+    <col min="5891" max="5891" width="1.33203125" style="37" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.77734375" style="37"/>
+    <col min="6147" max="6147" width="1.33203125" style="37" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.77734375" style="37"/>
+    <col min="6403" max="6403" width="1.33203125" style="37" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.77734375" style="37"/>
+    <col min="6659" max="6659" width="1.33203125" style="37" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.77734375" style="37"/>
+    <col min="6915" max="6915" width="1.33203125" style="37" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.77734375" style="37"/>
+    <col min="7171" max="7171" width="1.33203125" style="37" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.77734375" style="37"/>
+    <col min="7427" max="7427" width="1.33203125" style="37" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.77734375" style="37"/>
+    <col min="7683" max="7683" width="1.33203125" style="37" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.77734375" style="37"/>
+    <col min="7939" max="7939" width="1.33203125" style="37" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.77734375" style="37"/>
+    <col min="8195" max="8195" width="1.33203125" style="37" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.77734375" style="37"/>
+    <col min="8451" max="8451" width="1.33203125" style="37" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.77734375" style="37"/>
+    <col min="8707" max="8707" width="1.33203125" style="37" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.77734375" style="37"/>
+    <col min="8963" max="8963" width="1.33203125" style="37" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.77734375" style="37"/>
+    <col min="9219" max="9219" width="1.33203125" style="37" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.77734375" style="37"/>
+    <col min="9475" max="9475" width="1.33203125" style="37" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.77734375" style="37"/>
+    <col min="9731" max="9731" width="1.33203125" style="37" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.77734375" style="37"/>
+    <col min="9987" max="9987" width="1.33203125" style="37" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.77734375" style="37"/>
+    <col min="10243" max="10243" width="1.33203125" style="37" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.77734375" style="37"/>
+    <col min="10499" max="10499" width="1.33203125" style="37" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.77734375" style="37"/>
+    <col min="10755" max="10755" width="1.33203125" style="37" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.77734375" style="37"/>
+    <col min="11011" max="11011" width="1.33203125" style="37" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.77734375" style="37"/>
+    <col min="11267" max="11267" width="1.33203125" style="37" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.77734375" style="37"/>
+    <col min="11523" max="11523" width="1.33203125" style="37" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.77734375" style="37"/>
+    <col min="11779" max="11779" width="1.33203125" style="37" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.77734375" style="37"/>
+    <col min="12035" max="12035" width="1.33203125" style="37" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.77734375" style="37"/>
+    <col min="12291" max="12291" width="1.33203125" style="37" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.77734375" style="37"/>
+    <col min="12547" max="12547" width="1.33203125" style="37" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.77734375" style="37"/>
+    <col min="12803" max="12803" width="1.33203125" style="37" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.77734375" style="37"/>
+    <col min="13059" max="13059" width="1.33203125" style="37" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.77734375" style="37"/>
+    <col min="13315" max="13315" width="1.33203125" style="37" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.77734375" style="37"/>
+    <col min="13571" max="13571" width="1.33203125" style="37" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.77734375" style="37"/>
+    <col min="13827" max="13827" width="1.33203125" style="37" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.77734375" style="37"/>
+    <col min="14083" max="14083" width="1.33203125" style="37" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.77734375" style="37"/>
+    <col min="14339" max="14339" width="1.33203125" style="37" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.77734375" style="37"/>
+    <col min="14595" max="14595" width="1.33203125" style="37" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.77734375" style="37"/>
+    <col min="14851" max="14851" width="1.33203125" style="37" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.77734375" style="37"/>
+    <col min="15107" max="15107" width="1.33203125" style="37" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.77734375" style="37"/>
+    <col min="15363" max="15363" width="1.33203125" style="37" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.77734375" style="37"/>
+    <col min="15619" max="15619" width="1.33203125" style="37" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.77734375" style="37"/>
+    <col min="15875" max="15875" width="1.33203125" style="37" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.77734375" style="37"/>
+    <col min="16131" max="16131" width="1.33203125" style="37" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="37" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="37" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.77734375" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="87" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="66" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="81" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="78"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="74"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="60" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="70">
+      <c r="B6" s="59">
         <v>1</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="69" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="67"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="63">
+      <c r="B7" s="52">
         <v>2</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="61"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="63">
+      <c r="B8" s="52">
         <v>3</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="61"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="63">
+      <c r="B9" s="52">
         <v>4</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="61"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="63">
+      <c r="B10" s="52">
         <v>5</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="61"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="63">
+      <c r="B11" s="52">
         <v>6</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="61"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="63">
+      <c r="B12" s="52">
         <v>7</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="63">
+      <c r="B13" s="52">
         <v>8</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="61"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="63">
+      <c r="B14" s="52">
         <v>9</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="61"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="63">
+      <c r="B15" s="52">
         <v>10</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="61"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="63">
+      <c r="B16" s="52">
         <v>11</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="61"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="63">
+      <c r="B17" s="52">
         <v>12</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="61"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="63">
+      <c r="B18" s="52">
         <v>13</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="61"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="63">
+      <c r="B19" s="52">
         <v>14</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="61"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="63">
+      <c r="B20" s="52">
         <v>15</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="61"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="60">
+      <c r="B21" s="49">
         <v>16</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="58"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="37" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="55"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="52"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="54"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="52"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="54"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="52"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="54"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="52"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="54"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="52"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="41"/>
     </row>
     <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="54"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="52"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="41"/>
     </row>
     <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="54"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="52"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="41"/>
     </row>
     <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="54"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="52"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="41"/>
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="51"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="49"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6298,4 +6401,1203 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D1C7C-5D9C-400C-8B0F-D14F7452C182}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="73"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="78"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="90"/>
+      <c r="H6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237E1F2B-7C21-489A-A3DB-DEA56AC721DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135DA502-8CF1-435B-BD30-1538F98B713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="195" windowWidth="21660" windowHeight="14790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12225" yWindow="660" windowWidth="21660" windowHeight="14790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t>작성자</t>
   </si>
   <si>
-    <t>tbl_notice</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
@@ -496,6 +493,10 @@
   </si>
   <si>
     <t>tbl_bbd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_notice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1241,6 +1242,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1305,9 +1309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2317,20 +2318,20 @@
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74">
+      <c r="I2" s="74"/>
+      <c r="J2" s="75">
         <v>45327</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2342,34 +2343,34 @@
       <c r="C3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="76" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3518,20 +3519,20 @@
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74">
+      <c r="I2" s="74"/>
+      <c r="J2" s="75">
         <v>45327</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3543,34 +3544,34 @@
       <c r="C3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="76" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4713,20 +4714,20 @@
       <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74">
+      <c r="I2" s="74"/>
+      <c r="J2" s="75">
         <v>45327</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4738,36 +4739,36 @@
       <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="76" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="77"/>
+      <c r="J3" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="78"/>
+      <c r="K3" s="79"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5234,7 +5235,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5887,62 +5888,62 @@
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
       <c r="L2" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="64"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
@@ -6408,7 +6409,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7064,20 +7065,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="73"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="91"/>
-      <c r="K2" s="75"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -7087,36 +7088,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="76" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="78"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="79"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="C4" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7132,7 +7133,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -7158,20 +7159,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="E6" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="90"/>
+      <c r="F6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="68"/>
       <c r="H6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -7186,16 +7187,16 @@
         <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -7208,19 +7209,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -7233,19 +7234,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -7261,16 +7262,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135DA502-8CF1-435B-BD30-1538F98B713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D8DA75-C5B2-4F9B-92C2-007A7A7B01D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="660" windowWidth="21660" windowHeight="14790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="3270" windowWidth="21660" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>tbl_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1659,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19970286-558C-419C-ADE7-4E446360853C}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2412,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>26</v>
@@ -6408,7 +6412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D1C7C-5D9C-400C-8B0F-D14F7452C182}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D8DA75-C5B2-4F9B-92C2-007A7A7B01D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95767D24-8219-436E-B256-2925AAB2683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="3270" windowWidth="21660" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="690" windowWidth="21660" windowHeight="14790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19970286-558C-419C-ADE7-4E446360853C}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2865,7 +2865,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4060,7 +4060,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4825,10 +4825,10 @@
       <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>70</v>
       </c>
@@ -5238,8 +5238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A351F1-878B-462B-9084-35D481A916B5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95767D24-8219-436E-B256-2925AAB2683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCCF23-79BE-4F53-8033-320E2BCE7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="690" windowWidth="21660" windowHeight="14790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="136">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -309,198 +309,234 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>작성일자</t>
+  </si>
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>변경이력</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>문자열형(200)</t>
+  </si>
+  <si>
+    <t>주의사항</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>n_viewer</t>
+  </si>
+  <si>
+    <t>문자열형(20)</t>
+  </si>
+  <si>
+    <t>시청자</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>FK 열이름</t>
+  </si>
+  <si>
+    <t>FK 테이블 이름</t>
+  </si>
+  <si>
+    <t>외래키</t>
+  </si>
+  <si>
+    <t>기본키</t>
+  </si>
+  <si>
+    <t>NULL ?</t>
+  </si>
+  <si>
+    <t>MySQUL</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+  </si>
+  <si>
+    <t>열 이름</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>공지사항 기본정보를 저장하는 테이블</t>
+  </si>
+  <si>
+    <t>테이블 설명</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>작성일</t>
+  </si>
+  <si>
+    <t>테이블 명세서</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>테이블명</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채민선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_bbd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_NUSER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_members</t>
+  </si>
+  <si>
+    <t>FK_BUSER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_caution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>FK_CUSER</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
-    <t>작성일자</t>
-  </si>
-  <si>
-    <t>순번</t>
-  </si>
-  <si>
-    <t>변경이력</t>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-  </si>
-  <si>
-    <t>n_caution</t>
-  </si>
-  <si>
-    <t>문자열형(200)</t>
-  </si>
-  <si>
-    <t>주의사항</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>n_viewer</t>
-  </si>
-  <si>
-    <t>문자열형(20)</t>
-  </si>
-  <si>
-    <t>시청자</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
-    <t>n_director</t>
-  </si>
-  <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>FK 열이름</t>
-  </si>
-  <si>
-    <t>FK 테이블 이름</t>
-  </si>
-  <si>
-    <t>외래키</t>
-  </si>
-  <si>
-    <t>기본키</t>
-  </si>
-  <si>
-    <t>NULL ?</t>
-  </si>
-  <si>
-    <t>MySQUL</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>데이터 형식</t>
-  </si>
-  <si>
-    <t>열 이름</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>공지사항 기본정보를 저장하는 테이블</t>
-  </si>
-  <si>
-    <t>테이블 설명</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>작성일</t>
-  </si>
-  <si>
-    <t>테이블 명세서</t>
-  </si>
-  <si>
-    <t>공지사항</t>
-  </si>
-  <si>
-    <t>테이블명</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(150)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(150)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채민선</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_bbd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_check
+tbl_notice
+tbl_bbd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_user
+n_director
+author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_CUSER
+FK_NUSER
+FK_BUSER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -577,13 +613,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1041,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,6 +1346,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2416,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>26</v>
@@ -2862,10 +2894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AFB83-7989-4054-9457-9B3842159164}">
-  <dimension ref="B1:L35"/>
+  <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2878,7 +2910,7 @@
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
@@ -3515,8 +3547,8 @@
     <col min="16141" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
@@ -3560,7 +3592,7 @@
       <c r="K3" s="79"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
@@ -3577,7 +3609,7 @@
       <c r="K4" s="70"/>
       <c r="L4" s="71"/>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3612,7 +3644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3632,12 +3664,23 @@
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -3662,7 +3705,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -3685,7 +3728,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -3708,7 +3751,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -3731,7 +3774,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>6</v>
       </c>
@@ -3746,7 +3789,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -3761,7 +3804,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
@@ -3776,7 +3819,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>9</v>
       </c>
@@ -3791,7 +3834,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>10</v>
       </c>
@@ -3806,7 +3849,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
         <v>11</v>
       </c>
@@ -4060,7 +4103,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4830,7 +4873,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>39</v>
@@ -5238,8 +5281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A351F1-878B-462B-9084-35D481A916B5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5251,8 +5294,7 @@
     <col min="5" max="5" width="12.44140625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="37" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="37" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" style="37" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="37" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="37" customWidth="1"/>
@@ -5892,40 +5934,40 @@
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
       <c r="H2" s="85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I2" s="85"/>
       <c r="J2" s="86"/>
       <c r="K2" s="87"/>
       <c r="L2" s="66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" s="84"/>
       <c r="E3" s="84"/>
       <c r="F3" s="84"/>
       <c r="G3" s="84"/>
       <c r="H3" s="88" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I3" s="88"/>
       <c r="J3" s="89"/>
@@ -5934,10 +5976,10 @@
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="80"/>
@@ -5951,37 +5993,37 @@
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L5" s="60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5989,24 +6031,30 @@
         <v>1</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+        <v>82</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="L6" s="56"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6014,16 +6062,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
@@ -6037,16 +6085,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
@@ -6252,21 +6300,21 @@
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
@@ -6412,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D1C7C-5D9C-400C-8B0F-D14F7452C182}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6426,7 +6474,7 @@
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
@@ -7069,7 +7117,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" s="72" t="s">
         <v>14</v>
@@ -7101,7 +7149,7 @@
       </c>
       <c r="I3" s="77"/>
       <c r="J3" s="78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="17"/>
@@ -7111,7 +7159,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D4" s="70"/>
       <c r="E4" s="70"/>
@@ -7137,7 +7185,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -7163,21 +7211,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="3" t="s">
-        <v>118</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -7188,24 +7236,30 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7213,19 +7267,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -7238,19 +7292,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -7266,16 +7320,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCCF23-79BE-4F53-8033-320E2BCE7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F507F-D034-4FF5-B3F4-084CAEFC9E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="690" windowWidth="14415" windowHeight="14790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>동물들</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,257 +191,181 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용자명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(15)</t>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>이연수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>m_username</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>동물들 내용을 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 사용자별 체크리스트를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>작성일자</t>
+  </si>
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>변경이력</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>문자열형(200)</t>
+  </si>
+  <si>
+    <t>주의사항</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>n_viewer</t>
+  </si>
+  <si>
+    <t>문자열형(20)</t>
+  </si>
+  <si>
+    <t>시청자</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>FK 열이름</t>
+  </si>
+  <si>
+    <t>FK 테이블 이름</t>
+  </si>
+  <si>
+    <t>외래키</t>
+  </si>
+  <si>
+    <t>기본키</t>
+  </si>
+  <si>
+    <t>NULL ?</t>
+  </si>
+  <si>
+    <t>MySQUL</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+  </si>
+  <si>
+    <t>열 이름</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>공지사항 기본정보를 저장하는 테이블</t>
+  </si>
+  <si>
+    <t>테이블 설명</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>작성일</t>
+  </si>
+  <si>
+    <t>테이블 명세서</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>테이블명</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_realname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>m_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_role</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이연수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_username</t>
-  </si>
-  <si>
-    <t>동물들 내용을 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플리케이션 사용자별 체크리스트를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_animal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
-    <t>작성일자</t>
-  </si>
-  <si>
-    <t>순번</t>
-  </si>
-  <si>
-    <t>변경이력</t>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-  </si>
-  <si>
-    <t>문자열형(200)</t>
-  </si>
-  <si>
-    <t>주의사항</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>n_viewer</t>
-  </si>
-  <si>
-    <t>문자열형(20)</t>
-  </si>
-  <si>
-    <t>시청자</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>FK 열이름</t>
-  </si>
-  <si>
-    <t>FK 테이블 이름</t>
-  </si>
-  <si>
-    <t>외래키</t>
-  </si>
-  <si>
-    <t>기본키</t>
-  </si>
-  <si>
-    <t>NULL ?</t>
-  </si>
-  <si>
-    <t>MySQUL</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>데이터 형식</t>
-  </si>
-  <si>
-    <t>열 이름</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>공지사항 기본정보를 저장하는 테이블</t>
-  </si>
-  <si>
-    <t>테이블 설명</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>작성일</t>
-  </si>
-  <si>
-    <t>테이블 명세서</t>
-  </si>
-  <si>
-    <t>공지사항</t>
-  </si>
-  <si>
-    <t>테이블명</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(150)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(150)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
   </si>
   <si>
     <t>author</t>
@@ -511,14 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_CUSER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -537,6 +449,99 @@
     <t>FK_CUSER
 FK_NUSER
 FK_BUSER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>문자열형(100)</t>
+  </si>
+  <si>
+    <t>체크리스트</t>
+  </si>
+  <si>
+    <t>FK_CUSER</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>문자열형(15)</t>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 pk 일 수 없어서 일련번호 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>m_role</t>
+  </si>
+  <si>
+    <t>문자열형(5)</t>
+  </si>
+  <si>
+    <t>권한</t>
+  </si>
+  <si>
+    <t>m_tel</t>
+  </si>
+  <si>
+    <t>m_realname</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+  </si>
+  <si>
+    <t>m_password</t>
+  </si>
+  <si>
+    <t>문자열형(125)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>사용자명</t>
+  </si>
+  <si>
+    <t>m_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_check</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,6 +1283,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1346,9 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2352,22 +2360,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="74" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="77">
         <v>45327</v>
       </c>
-      <c r="K2" s="76"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2377,36 +2385,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
+      <c r="C4" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2448,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>23</v>
@@ -2473,16 +2481,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>24</v>
@@ -2498,16 +2506,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>24</v>
@@ -2523,16 +2531,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>24</v>
@@ -2548,16 +2556,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>24</v>
@@ -2896,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AFB83-7989-4054-9457-9B3842159164}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3553,22 +3561,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="74" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="77">
         <v>45327</v>
       </c>
-      <c r="K2" s="76"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3578,36 +3586,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
+      <c r="C4" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3644,84 +3652,86 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
+      <c r="I7" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>134</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3733,16 +3743,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3756,16 +3766,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3778,10 +3788,18 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -4102,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C432711-B963-4B49-8A43-C929541A20EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4759,22 +4777,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="74" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75">
+      <c r="I2" s="76"/>
+      <c r="J2" s="77">
         <v>45327</v>
       </c>
-      <c r="K2" s="76"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4784,38 +4802,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="81"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
+      <c r="C4" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4857,30 +4875,24 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4888,35 +4900,51 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -5145,10 +5173,18 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="B27" s="22">
+        <v>1</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>126</v>
+      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -5934,96 +5970,96 @@
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="67" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
+        <v>82</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="66" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+        <v>103</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="64"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
+        <v>76</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L5" s="60" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6031,29 +6067,29 @@
         <v>1</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="58" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="L6" s="56"/>
     </row>
@@ -6062,16 +6098,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
@@ -6085,16 +6121,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
@@ -6300,21 +6336,21 @@
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="37" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="46" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
@@ -6460,7 +6496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D1C7C-5D9C-400C-8B0F-D14F7452C182}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -7117,20 +7153,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="74" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -7140,36 +7176,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="77" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="81"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
+      <c r="C4" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7185,7 +7221,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -7211,16 +7247,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>24</v>
@@ -7236,29 +7272,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="L7" s="15"/>
     </row>
@@ -7267,19 +7303,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -7292,19 +7328,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -7320,16 +7356,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\animal_router\animal_dbms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\프로젝트 동물\router_animal\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F507F-D034-4FF5-B3F4-084CAEFC9E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5310DD3-BB0D-4243-9E0D-982C6CCBA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="690" windowWidth="14415" windowHeight="14790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
     <sheet name="회원정보" sheetId="5" r:id="rId2"/>
     <sheet name="체크리스트" sheetId="6" r:id="rId3"/>
-    <sheet name="공지사항" sheetId="7" r:id="rId4"/>
-    <sheet name="자유게시판" sheetId="8" r:id="rId5"/>
+    <sheet name="나의반려동물" sheetId="9" r:id="rId4"/>
+    <sheet name="공지사항" sheetId="7" r:id="rId5"/>
+    <sheet name="자유게시판" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="157">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -415,13 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_members</t>
-  </si>
-  <si>
-    <t>FK_BUSER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>n_director</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -434,24 +428,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_check
-tbl_notice
-tbl_bbd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_user
-n_director
-author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_CUSER
-FK_NUSER
-FK_BUSER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자</t>
   </si>
   <si>
@@ -464,9 +440,6 @@
     <t>체크리스트</t>
   </si>
   <si>
-    <t>FK_CUSER</t>
-  </si>
-  <si>
     <t>VARCHAR(15)</t>
   </si>
   <si>
@@ -527,9 +500,6 @@
     <t>문자열형(125)</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>사용자명</t>
   </si>
   <si>
@@ -542,6 +512,90 @@
   </si>
   <si>
     <t>u_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의반려동물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_myanimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물사진원본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_animalname</t>
+  </si>
+  <si>
+    <t>ma_age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_image_name</t>
+  </si>
+  <si>
+    <t>ma_image_origin_name</t>
+  </si>
+  <si>
+    <t>ma_memo</t>
+  </si>
+  <si>
+    <t>문자열형(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 사용자별 반려동물 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2904,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1AFB83-7989-4054-9457-9B3842159164}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3657,16 +3711,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -3677,41 +3731,33 @@
       <c r="K6" s="69"/>
       <c r="L6" s="14"/>
       <c r="M6" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
@@ -3721,13 +3767,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>84</v>
@@ -3743,13 +3789,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>58</v>
@@ -3769,13 +3815,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3789,16 +3835,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4120,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C432711-B963-4B49-8A43-C929541A20EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4875,16 +4921,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
@@ -4900,30 +4946,24 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4931,16 +4971,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>84</v>
@@ -5177,13 +5217,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -5314,6 +5354,1209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C94E71-64BA-451D-A750-E711DD500A51}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77">
+        <v>45338</v>
+      </c>
+      <c r="K2" s="78"/>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="81"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>14</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>16</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A351F1-878B-462B-9084-35D481A916B5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
@@ -6073,7 +7316,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>58</v>
@@ -6127,7 +7370,7 @@
         <v>56</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>55</v>
@@ -6492,12 +7735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D1C7C-5D9C-400C-8B0F-D14F7452C182}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7258,10 +8501,10 @@
       <c r="F6" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -7283,19 +8526,12 @@
       <c r="F7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="G7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\프로젝트 동물\router_animal\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5310DD3-BB0D-4243-9E0D-982C6CCBA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D52044C-24BB-43F0-B41D-9FB5501EE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="450" windowWidth="14415" windowHeight="14790" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -245,357 +245,367 @@
     <t>변경이력</t>
   </si>
   <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>문자열형(20)</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>FK 열이름</t>
+  </si>
+  <si>
+    <t>FK 테이블 이름</t>
+  </si>
+  <si>
+    <t>외래키</t>
+  </si>
+  <si>
+    <t>기본키</t>
+  </si>
+  <si>
+    <t>NULL ?</t>
+  </si>
+  <si>
+    <t>MySQUL</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+  </si>
+  <si>
+    <t>열 이름</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>공지사항 기본정보를 저장하는 테이블</t>
+  </si>
+  <si>
+    <t>테이블 설명</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>작성일</t>
+  </si>
+  <si>
+    <t>테이블 명세서</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>테이블명</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(150)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채민선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_bbd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_NUSER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>문자열형(100)</t>
+  </si>
+  <si>
+    <t>체크리스트</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>문자열형(15)</t>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 pk 일 수 없어서 일련번호 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>m_role</t>
+  </si>
+  <si>
+    <t>문자열형(5)</t>
+  </si>
+  <si>
+    <t>권한</t>
+  </si>
+  <si>
+    <t>m_tel</t>
+  </si>
+  <si>
+    <t>m_realname</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+  </si>
+  <si>
+    <t>m_password</t>
+  </si>
+  <si>
+    <t>문자열형(125)</t>
+  </si>
+  <si>
+    <t>사용자명</t>
+  </si>
+  <si>
+    <t>m_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의반려동물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_myanimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물사진원본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_animalname</t>
+  </si>
+  <si>
+    <t>ma_age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_image_name</t>
+  </si>
+  <si>
+    <t>ma_image_origin_name</t>
+  </si>
+  <si>
+    <t>ma_memo</t>
+  </si>
+  <si>
+    <t>문자열형(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 사용자별 반려동물 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_contents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR(200)</t>
-  </si>
-  <si>
-    <t>문자열형(200)</t>
-  </si>
-  <si>
-    <t>주의사항</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>n_viewer</t>
-  </si>
-  <si>
-    <t>문자열형(20)</t>
-  </si>
-  <si>
-    <t>시청자</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>FK 열이름</t>
-  </si>
-  <si>
-    <t>FK 테이블 이름</t>
-  </si>
-  <si>
-    <t>외래키</t>
-  </si>
-  <si>
-    <t>기본키</t>
-  </si>
-  <si>
-    <t>NULL ?</t>
-  </si>
-  <si>
-    <t>MySQUL</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>데이터 형식</t>
-  </si>
-  <si>
-    <t>열 이름</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>공지사항 기본정보를 저장하는 테이블</t>
-  </si>
-  <si>
-    <t>테이블 설명</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>작성일</t>
-  </si>
-  <si>
-    <t>테이블 명세서</t>
-  </si>
-  <si>
-    <t>공지사항</t>
-  </si>
-  <si>
-    <t>테이블명</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(150)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(150)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL형식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채민선</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_bbd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_NUSER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_director</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_caution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>문자열형(100)</t>
-  </si>
-  <si>
-    <t>체크리스트</t>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-  </si>
-  <si>
-    <t>문자열형(15)</t>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.02.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 pk 일 수 없어서 일련번호 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-  </si>
-  <si>
-    <t>m_role</t>
-  </si>
-  <si>
-    <t>문자열형(5)</t>
-  </si>
-  <si>
-    <t>권한</t>
-  </si>
-  <si>
-    <t>m_tel</t>
-  </si>
-  <si>
-    <t>m_realname</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
-  </si>
-  <si>
-    <t>m_password</t>
-  </si>
-  <si>
-    <t>문자열형(125)</t>
-  </si>
-  <si>
-    <t>사용자명</t>
-  </si>
-  <si>
-    <t>m_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의반려동물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_myanimal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물나이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물사진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물사진원본</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_animalname</t>
-  </si>
-  <si>
-    <t>ma_age</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_image_name</t>
-  </si>
-  <si>
-    <t>ma_image_origin_name</t>
-  </si>
-  <si>
-    <t>ma_memo</t>
-  </si>
-  <si>
-    <t>문자열형(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플리케이션 사용자별 반려동물 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열형(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2510,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>26</v>
@@ -3711,16 +3721,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -3731,7 +3741,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="14"/>
       <c r="M6" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3739,19 +3749,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="70"/>
@@ -3764,19 +3774,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3789,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3815,13 +3825,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3835,16 +3845,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4921,16 +4931,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
@@ -4946,19 +4956,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4971,19 +4981,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -5217,13 +5227,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -6014,7 +6024,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>14</v>
@@ -6039,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
@@ -6060,7 +6070,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
@@ -6112,16 +6122,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
@@ -6137,16 +6147,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -6160,16 +6170,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -6183,16 +6193,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -6206,16 +6216,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -6229,13 +6239,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -6542,12 +6552,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6560,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A351F1-878B-462B-9084-35D481A916B5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7213,40 +7223,40 @@
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="67" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
       <c r="G2" s="85"/>
       <c r="H2" s="87" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I2" s="87"/>
       <c r="J2" s="88"/>
       <c r="K2" s="89"/>
       <c r="L2" s="66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="90" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="91"/>
@@ -7255,10 +7265,10 @@
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
@@ -7272,37 +7282,37 @@
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L5" s="60" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7310,23 +7320,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="G6" s="51"/>
-      <c r="H6" s="58" t="s">
-        <v>62</v>
-      </c>
+      <c r="H6" s="58"/>
       <c r="I6" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>38</v>
@@ -7341,16 +7349,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
@@ -7364,19 +7372,21 @@
         <v>3</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
@@ -7739,7 +7749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D1C7C-5D9C-400C-8B0F-D14F7452C182}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -8396,7 +8406,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>14</v>
@@ -8428,7 +8438,7 @@
       </c>
       <c r="I3" s="79"/>
       <c r="J3" s="80" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K3" s="81"/>
       <c r="L3" s="17"/>
@@ -8438,7 +8448,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
@@ -8464,7 +8474,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -8490,16 +8500,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G6" s="68"/>
       <c r="H6" s="10" t="s">
@@ -8515,19 +8525,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -8539,19 +8549,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -8564,19 +8574,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -8592,16 +8602,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\프로젝트 동물\router_animal\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D52044C-24BB-43F0-B41D-9FB5501EE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BDD87-B7F4-41AC-9A08-F85D5A55159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="450" windowWidth="14415" windowHeight="14790" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1545" yWindow="1425" windowWidth="28965" windowHeight="14790" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="157">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -391,10 +391,6 @@
   </si>
   <si>
     <t>동물이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK_NUSER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3721,16 +3717,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -3741,7 +3737,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="14"/>
       <c r="M6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3749,16 +3745,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>78</v>
@@ -3777,13 +3773,13 @@
         <v>87</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>78</v>
@@ -3799,13 +3795,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>55</v>
@@ -3825,13 +3821,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3845,16 +3841,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4931,16 +4927,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
@@ -4956,16 +4952,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>78</v>
@@ -4981,16 +4977,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>78</v>
@@ -5227,13 +5223,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -6024,7 +6020,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>14</v>
@@ -6049,7 +6045,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
@@ -6070,7 +6066,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
@@ -6122,16 +6118,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="E6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
@@ -6150,13 +6146,13 @@
         <v>98</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -6170,16 +6166,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -6193,16 +6189,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -6216,16 +6212,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -6239,13 +6235,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -6571,7 +6567,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7320,28 +7316,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="F6" s="51" t="s">
         <v>152</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>153</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="58"/>
-      <c r="I6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="56"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7352,13 +7342,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="F7" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>156</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
@@ -7372,13 +7362,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>23</v>

--- a/animal_dbms/테이블명세.xlsx
+++ b/animal_dbms/테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505106\Desktop\프로젝트 동물\router_animal\animal_dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BDD87-B7F4-41AC-9A08-F85D5A55159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A34CF5-0E71-4785-A3E4-D85810D67408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1545" yWindow="1425" windowWidth="28965" windowHeight="14790" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="동물정보" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="체크리스트" sheetId="6" r:id="rId3"/>
     <sheet name="나의반려동물" sheetId="9" r:id="rId4"/>
     <sheet name="공지사항" sheetId="7" r:id="rId5"/>
-    <sheet name="자유게시판" sheetId="8" r:id="rId6"/>
+    <sheet name="자유게시판" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="169">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -603,13 +603,60 @@
   <si>
     <t>관리자</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_checkmark</t>
+  </si>
+  <si>
+    <t>2024.02.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크표시를위한 칼럼 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_origin_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -679,6 +726,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -712,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1113,19 +1167,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1135,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,9 +1379,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2422,20 +2460,20 @@
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77">
+      <c r="I2" s="75"/>
+      <c r="J2" s="76">
         <v>45327</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2447,34 +2485,34 @@
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="79" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3623,20 +3661,20 @@
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77">
+      <c r="I2" s="75"/>
+      <c r="J2" s="76">
         <v>45327</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3648,34 +3686,34 @@
       <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="79" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3732,9 +3770,9 @@
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="14"/>
       <c r="M6" s="1" t="s">
         <v>100</v>
@@ -3760,9 +3798,9 @@
         <v>78</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4172,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C432711-B963-4B49-8A43-C929541A20EB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4831,20 +4869,20 @@
       <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77">
+      <c r="I2" s="75"/>
+      <c r="J2" s="76">
         <v>45327</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4856,36 +4894,36 @@
       <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="79" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5001,10 +5039,18 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -5240,10 +5286,18 @@
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -6022,20 +6076,20 @@
       <c r="C2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77">
+      <c r="I2" s="75"/>
+      <c r="J2" s="76">
         <v>45338</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -6047,36 +6101,36 @@
       <c r="C3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="79" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -6566,7 +6620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A351F1-878B-462B-9084-35D481A916B5}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -7224,18 +7278,18 @@
       <c r="C2" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="87" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="66" t="s">
         <v>73</v>
       </c>
@@ -7247,34 +7301,34 @@
       <c r="C3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="90" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
       <c r="L3" s="64"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="84"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
@@ -7736,11 +7790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D1C7C-5D9C-400C-8B0F-D14F7452C182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA8C50-2CAB-40BC-A84A-0A8811B47576}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7753,7 +7807,7 @@
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
@@ -8398,18 +8452,18 @@
       <c r="C2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="78"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -8419,36 +8473,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="79" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8485,70 +8539,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="10" t="s">
-        <v>25</v>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>82</v>
+      <c r="F7" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>78</v>
       </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>82</v>
+      <c r="F8" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>78</v>
@@ -8559,20 +8614,20 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -8584,20 +8639,20 @@
       <c r="K9" s="10"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -8609,14 +8664,22 @@
       <c r="K10" s="10"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -8624,14 +8687,22 @@
       <c r="K11" s="10"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -8643,11 +8714,21 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
